--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama2-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Lama2-Dag1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H2">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I2">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J2">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="N2">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="O2">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="P2">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="Q2">
-        <v>17.09055489080667</v>
+        <v>50.90025189499266</v>
       </c>
       <c r="R2">
-        <v>153.81499401726</v>
+        <v>458.102267054934</v>
       </c>
       <c r="S2">
-        <v>0.0002473936379644363</v>
+        <v>0.0005547211633188184</v>
       </c>
       <c r="T2">
-        <v>0.0002473936379644363</v>
+        <v>0.0005547211633188186</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H3">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I3">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J3">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>110.01276</v>
       </c>
       <c r="O3">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="P3">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="Q3">
-        <v>55.14979996812</v>
+        <v>89.12405052407999</v>
       </c>
       <c r="R3">
-        <v>496.34819971308</v>
+        <v>802.11645471672</v>
       </c>
       <c r="S3">
-        <v>0.0007983187049393797</v>
+        <v>0.0009712917941623464</v>
       </c>
       <c r="T3">
-        <v>0.0007983187049393796</v>
+        <v>0.0009712917941623468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H4">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I4">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J4">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="N4">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="O4">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="P4">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="Q4">
-        <v>356.3954070828013</v>
+        <v>690.7931647353487</v>
       </c>
       <c r="R4">
-        <v>3207.558663745212</v>
+        <v>6217.138482618137</v>
       </c>
       <c r="S4">
-        <v>0.005158987339811814</v>
+        <v>0.007528402585221351</v>
       </c>
       <c r="T4">
-        <v>0.005158987339811813</v>
+        <v>0.007528402585221354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.503911</v>
+        <v>2.430374</v>
       </c>
       <c r="H5">
-        <v>4.511733</v>
+        <v>7.291122000000001</v>
       </c>
       <c r="I5">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915244</v>
       </c>
       <c r="J5">
-        <v>0.006306768398326322</v>
+        <v>0.009222757332915246</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="N5">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="O5">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="P5">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="Q5">
-        <v>7.051155402102334</v>
+        <v>15.44675071529067</v>
       </c>
       <c r="R5">
-        <v>63.460398618921</v>
+        <v>139.020756437616</v>
       </c>
       <c r="S5">
-        <v>0.000102068715610693</v>
+        <v>0.0001683417902127273</v>
       </c>
       <c r="T5">
-        <v>0.000102068715610693</v>
+        <v>0.0001683417902127274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>433.257233</v>
       </c>
       <c r="I6">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J6">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="N6">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="O6">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="P6">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="Q6">
-        <v>1641.188989336362</v>
+        <v>3024.623959800361</v>
       </c>
       <c r="R6">
-        <v>14770.70090402726</v>
+        <v>27221.61563820325</v>
       </c>
       <c r="S6">
-        <v>0.02375696501682955</v>
+        <v>0.03296295910369521</v>
       </c>
       <c r="T6">
-        <v>0.02375696501682955</v>
+        <v>0.03296295910369521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>433.257233</v>
       </c>
       <c r="I7">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J7">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>110.01276</v>
       </c>
       <c r="O7">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="P7">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="Q7">
-        <v>5295.98044358812</v>
+        <v>5295.980443588119</v>
       </c>
       <c r="R7">
-        <v>47663.82399229308</v>
+        <v>47663.82399229307</v>
       </c>
       <c r="S7">
-        <v>0.07666175129471958</v>
+        <v>0.0577166580362232</v>
       </c>
       <c r="T7">
-        <v>0.07666175129471958</v>
+        <v>0.05771665803622322</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>433.257233</v>
       </c>
       <c r="I8">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J8">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="N8">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="O8">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="P8">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="Q8">
-        <v>34224.29650127858</v>
+        <v>41048.70761023479</v>
       </c>
       <c r="R8">
-        <v>308018.6685115072</v>
+        <v>369438.3684921131</v>
       </c>
       <c r="S8">
-        <v>0.4954124235474255</v>
+        <v>0.4473570560173111</v>
       </c>
       <c r="T8">
-        <v>0.4954124235474255</v>
+        <v>0.4473570560173112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>433.257233</v>
       </c>
       <c r="I9">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605952</v>
       </c>
       <c r="J9">
-        <v>0.6056326971101136</v>
+        <v>0.5480399755605954</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="N9">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="O9">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="P9">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="Q9">
-        <v>677.1154407780468</v>
+        <v>917.885679837425</v>
       </c>
       <c r="R9">
-        <v>6094.038967002421</v>
+        <v>8260.971118536825</v>
       </c>
       <c r="S9">
-        <v>0.009801557251138919</v>
+        <v>0.01000330240336572</v>
       </c>
       <c r="T9">
-        <v>0.009801557251138919</v>
+        <v>0.01000330240336573</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H10">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I10">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J10">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="N10">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="O10">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="P10">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="Q10">
-        <v>1051.12345173718</v>
+        <v>2439.283866395679</v>
       </c>
       <c r="R10">
-        <v>9460.111065634617</v>
+        <v>21953.5547975611</v>
       </c>
       <c r="S10">
-        <v>0.01521549512794799</v>
+        <v>0.02658380525941857</v>
       </c>
       <c r="T10">
-        <v>0.01521549512794799</v>
+        <v>0.02658380525941858</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H11">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I11">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J11">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>110.01276</v>
       </c>
       <c r="O11">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="P11">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="Q11">
-        <v>3391.888003372439</v>
+        <v>4271.076280716959</v>
       </c>
       <c r="R11">
-        <v>30526.99203035195</v>
+        <v>38439.68652645264</v>
       </c>
       <c r="S11">
-        <v>0.0490991379790495</v>
+        <v>0.04654704672091811</v>
       </c>
       <c r="T11">
-        <v>0.0490991379790495</v>
+        <v>0.04654704672091812</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H12">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I12">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J12">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="N12">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="O12">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="P12">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="Q12">
-        <v>21919.45041396311</v>
+        <v>33104.75997705455</v>
       </c>
       <c r="R12">
-        <v>197275.053725668</v>
+        <v>297942.8397934909</v>
       </c>
       <c r="S12">
-        <v>0.3172941203335881</v>
+        <v>0.3607823199725367</v>
       </c>
       <c r="T12">
-        <v>0.3172941203335881</v>
+        <v>0.3607823199725367</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>92.49530699999998</v>
+        <v>116.470388</v>
       </c>
       <c r="H13">
-        <v>277.485921</v>
+        <v>349.411164</v>
       </c>
       <c r="I13">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="J13">
-        <v>0.3878863038976982</v>
+        <v>0.4419805861132828</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="N13">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="O13">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="P13">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="Q13">
-        <v>433.6684708218529</v>
+        <v>740.2519320685548</v>
       </c>
       <c r="R13">
-        <v>3903.016237396676</v>
+        <v>6662.267388616993</v>
       </c>
       <c r="S13">
-        <v>0.006277550457112647</v>
+        <v>0.008067414160409448</v>
       </c>
       <c r="T13">
-        <v>0.006277550457112647</v>
+        <v>0.00806741416040945</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H14">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I14">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J14">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.36407333333333</v>
+        <v>20.94338233333333</v>
       </c>
       <c r="N14">
-        <v>34.09222</v>
+        <v>62.830147</v>
       </c>
       <c r="O14">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="P14">
-        <v>0.03922668827193482</v>
+        <v>0.06014699761632732</v>
       </c>
       <c r="Q14">
-        <v>0.47214315478</v>
+        <v>4.176110437266667</v>
       </c>
       <c r="R14">
-        <v>4.24928839302</v>
+        <v>37.5849939354</v>
       </c>
       <c r="S14">
-        <v>6.834489192850132E-06</v>
+        <v>4.551208989471267E-05</v>
       </c>
       <c r="T14">
-        <v>6.834489192850132E-06</v>
+        <v>4.551208989471269E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H15">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I15">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J15">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>110.01276</v>
       </c>
       <c r="O15">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="P15">
-        <v>0.126581262307212</v>
+        <v>0.105314686172636</v>
       </c>
       <c r="Q15">
-        <v>1.52356671324</v>
+        <v>7.312181448</v>
       </c>
       <c r="R15">
-        <v>13.71210041916</v>
+        <v>65.80963303199999</v>
       </c>
       <c r="S15">
-        <v>2.205432850355932E-05</v>
+        <v>7.968962133234305E-05</v>
       </c>
       <c r="T15">
-        <v>2.205432850355932E-05</v>
+        <v>7.968962133234308E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H16">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I16">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J16">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>236.9790546666667</v>
+        <v>284.2332763333333</v>
       </c>
       <c r="N16">
-        <v>710.9371639999999</v>
+        <v>852.6998289999999</v>
       </c>
       <c r="O16">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572833</v>
       </c>
       <c r="P16">
-        <v>0.8180080532497269</v>
+        <v>0.8162854462572834</v>
       </c>
       <c r="Q16">
-        <v>9.845768784236</v>
+        <v>56.67611530086667</v>
       </c>
       <c r="R16">
-        <v>88.61191905812399</v>
+        <v>510.0850377078</v>
       </c>
       <c r="S16">
-        <v>0.0001425220289014186</v>
+        <v>0.0006176676822139876</v>
       </c>
       <c r="T16">
-        <v>0.0001425220289014186</v>
+        <v>0.0006176676822139877</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.041547</v>
+        <v>0.1994</v>
       </c>
       <c r="H17">
-        <v>0.124641</v>
+        <v>0.5982000000000001</v>
       </c>
       <c r="I17">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065188</v>
       </c>
       <c r="J17">
-        <v>0.0001742305938617802</v>
+        <v>0.0007566809932065189</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.688545666666666</v>
+        <v>6.355709333333334</v>
       </c>
       <c r="N17">
-        <v>14.065637</v>
+        <v>19.067128</v>
       </c>
       <c r="O17">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="P17">
-        <v>0.01618399617112621</v>
+        <v>0.01825286995375338</v>
       </c>
       <c r="Q17">
-        <v>0.194795006813</v>
+        <v>1.267328441066667</v>
       </c>
       <c r="R17">
-        <v>1.753155061317</v>
+        <v>11.4059559696</v>
       </c>
       <c r="S17">
-        <v>2.819747263952096E-06</v>
+        <v>1.381159976547553E-05</v>
       </c>
       <c r="T17">
-        <v>2.819747263952096E-06</v>
+        <v>1.381159976547554E-05</v>
       </c>
     </row>
   </sheetData>
